--- a/teaching/traditional_assets/database/data/turkey/turkey_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_insurance_life.xlsx
@@ -591,46 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2275</v>
+        <v>0.328</v>
       </c>
       <c r="E2">
-        <v>0.5405</v>
+        <v>0.3525</v>
+      </c>
+      <c r="F2">
+        <v>0.29</v>
       </c>
       <c r="G2">
-        <v>0.2555143815069702</v>
+        <v>0.185530462184874</v>
       </c>
       <c r="H2">
-        <v>0.2555143815069702</v>
+        <v>0.185530462184874</v>
       </c>
       <c r="I2">
-        <v>0.2650441111552508</v>
+        <v>0.2102153361344538</v>
       </c>
       <c r="J2">
-        <v>0.2065161269744508</v>
+        <v>0.1631651584667666</v>
       </c>
       <c r="K2">
-        <v>90.59999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="L2">
-        <v>0.1598729486500794</v>
+        <v>0.1335346638655462</v>
       </c>
       <c r="M2">
-        <v>33.05</v>
+        <v>53.8</v>
       </c>
       <c r="N2">
-        <v>0.03608078602620087</v>
+        <v>0.056822982678496</v>
       </c>
       <c r="O2">
-        <v>0.3647902869757174</v>
+        <v>0.529006882989184</v>
       </c>
       <c r="P2">
-        <v>33.05</v>
+        <v>53.8</v>
       </c>
       <c r="Q2">
-        <v>0.03608078602620087</v>
+        <v>0.056822982678496</v>
       </c>
       <c r="R2">
-        <v>0.3647902869757174</v>
+        <v>0.529006882989184</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +642,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>175.9</v>
+        <v>153.3</v>
       </c>
       <c r="V2">
-        <v>0.1920305676855895</v>
+        <v>0.1619138149556401</v>
       </c>
       <c r="W2">
-        <v>0.5605193109680924</v>
+        <v>0.3079289365685074</v>
       </c>
       <c r="X2">
-        <v>0.1155970154675182</v>
+        <v>0.108979961274915</v>
       </c>
       <c r="Y2">
-        <v>0.4449222955005742</v>
+        <v>0.1989489752935925</v>
       </c>
       <c r="Z2">
-        <v>7.959547907073751</v>
+        <v>4.680432645034414</v>
       </c>
       <c r="AA2">
-        <v>-3.758627741987433</v>
+        <v>1.966687253298845</v>
       </c>
       <c r="AB2">
-        <v>0.1138584928158634</v>
+        <v>0.1083766983067593</v>
       </c>
       <c r="AC2">
-        <v>-3.872486234803297</v>
+        <v>1.858310554992086</v>
       </c>
       <c r="AD2">
-        <v>15.92</v>
+        <v>11.49</v>
       </c>
       <c r="AE2">
-        <v>9.997511041596562</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>25.91751104159656</v>
+        <v>11.49</v>
       </c>
       <c r="AG2">
-        <v>-149.9824889584035</v>
+        <v>-141.81</v>
       </c>
       <c r="AH2">
-        <v>0.02751569085167162</v>
+        <v>0.01199010737876843</v>
       </c>
       <c r="AI2">
-        <v>0.07434368676478824</v>
+        <v>0.04392369738904392</v>
       </c>
       <c r="AJ2">
-        <v>-0.1957951179920991</v>
+        <v>-0.1761636790519137</v>
       </c>
       <c r="AK2">
-        <v>-0.8683687487963065</v>
+        <v>-1.309539200295503</v>
       </c>
       <c r="AL2">
-        <v>0.9379999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.9379999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.1005050505050505</v>
-      </c>
-      <c r="AO2">
-        <v>159.4882729211087</v>
+        <v>0.06993304930006086</v>
       </c>
       <c r="AP2">
-        <v>-0.9468591474646684</v>
-      </c>
-      <c r="AQ2">
-        <v>159.4882729211087</v>
+        <v>-0.8631162507608033</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anadolu Hayat Emeklilik Anonim Sirketi (IBSE:ANHYT)</t>
+          <t>AvivaSA Emeklilik ve Hayat A.S. (IBSE:AVISA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +722,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.142</v>
+        <v>0.379</v>
       </c>
       <c r="E3">
-        <v>0.256</v>
+        <v>0.423</v>
+      </c>
+      <c r="F3">
+        <v>0.29</v>
       </c>
       <c r="G3">
-        <v>0.25</v>
+        <v>0.1691176470588235</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>0.1691176470588235</v>
       </c>
       <c r="I3">
-        <v>0.258320726172466</v>
+        <v>0.2174773755656109</v>
       </c>
       <c r="J3">
-        <v>0.2010021842331482</v>
+        <v>0.1689890423821082</v>
       </c>
       <c r="K3">
-        <v>51.9</v>
+        <v>35.1</v>
       </c>
       <c r="L3">
-        <v>0.1962934947049924</v>
+        <v>0.09926470588235294</v>
       </c>
       <c r="M3">
-        <v>24.1</v>
+        <v>16.6</v>
       </c>
       <c r="N3">
-        <v>0.04875581630588711</v>
+        <v>0.03732014388489209</v>
       </c>
       <c r="O3">
-        <v>0.464354527938343</v>
+        <v>0.4729344729344729</v>
       </c>
       <c r="P3">
-        <v>24.1</v>
+        <v>16.6</v>
       </c>
       <c r="Q3">
-        <v>0.04875581630588711</v>
+        <v>0.03732014388489209</v>
       </c>
       <c r="R3">
-        <v>0.464354527938343</v>
+        <v>0.4729344729344729</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,55 +773,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>57.7</v>
+        <v>90.5</v>
       </c>
       <c r="V3">
-        <v>0.1167307303257131</v>
+        <v>0.2034622302158273</v>
       </c>
       <c r="W3">
-        <v>0.3637000700770848</v>
+        <v>0.271671826625387</v>
       </c>
       <c r="X3">
-        <v>0.1149207928372646</v>
+        <v>0.1087787596647886</v>
       </c>
       <c r="Y3">
-        <v>0.2487792772398202</v>
+        <v>0.1628930669605984</v>
       </c>
       <c r="Z3">
-        <v>3.346835443037975</v>
+        <v>20.65420560747665</v>
       </c>
       <c r="AA3">
-        <v>0.6727212343195491</v>
+        <v>3.490334426770648</v>
       </c>
       <c r="AB3">
-        <v>0.1138336273206636</v>
+        <v>0.1083170285472138</v>
       </c>
       <c r="AC3">
-        <v>0.5588876069988855</v>
+        <v>3.382017398223435</v>
       </c>
       <c r="AD3">
-        <v>9.800000000000001</v>
+        <v>4.08</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.800000000000001</v>
+        <v>4.08</v>
       </c>
       <c r="AG3">
-        <v>-47.90000000000001</v>
+        <v>-86.42</v>
       </c>
       <c r="AH3">
-        <v>0.01944058718508233</v>
+        <v>0.009089288896809837</v>
       </c>
       <c r="AI3">
-        <v>0.04820462370880473</v>
+        <v>0.05448717948717949</v>
       </c>
       <c r="AJ3">
-        <v>-0.1073028673835126</v>
+        <v>-0.2411406886545008</v>
       </c>
       <c r="AK3">
-        <v>-0.3289835164835165</v>
+        <v>5.532650448143404</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.1336971350613916</v>
+        <v>0.05237483953786906</v>
       </c>
       <c r="AP3">
-        <v>-0.6534788540245567</v>
+        <v>-1.109370988446726</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AvivaSA Emeklilik ve Hayat A.S. (IBSE:AVISA)</t>
+          <t>Anadolu Hayat Emeklilik Anonim Sirketi (IBSE:ANHYT)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,46 +853,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.313</v>
+        <v>0.277</v>
       </c>
       <c r="E4">
-        <v>0.825</v>
+        <v>0.282</v>
       </c>
       <c r="G4">
-        <v>0.2603374131657294</v>
+        <v>0.1997549019607843</v>
       </c>
       <c r="H4">
-        <v>0.2603374131657294</v>
+        <v>0.1997549019607843</v>
       </c>
       <c r="I4">
-        <v>0.2709245709284839</v>
+        <v>0.203921568627451</v>
       </c>
       <c r="J4">
-        <v>0.2113867115913775</v>
+        <v>0.1581044990755324</v>
       </c>
       <c r="K4">
-        <v>38.7</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="L4">
-        <v>0.128018524644393</v>
+        <v>0.163235294117647</v>
       </c>
       <c r="M4">
-        <v>8.949999999999999</v>
+        <v>37.2</v>
       </c>
       <c r="N4">
-        <v>0.02122361868626986</v>
+        <v>0.07410358565737052</v>
       </c>
       <c r="O4">
-        <v>0.231266149870801</v>
+        <v>0.5585585585585586</v>
       </c>
       <c r="P4">
-        <v>8.949999999999999</v>
+        <v>37.2</v>
       </c>
       <c r="Q4">
-        <v>0.02122361868626986</v>
+        <v>0.07410358565737052</v>
       </c>
       <c r="R4">
-        <v>0.231266149870801</v>
+        <v>0.5585585585585586</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,73 +901,67 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>118.2</v>
+        <v>62.8</v>
       </c>
       <c r="V4">
-        <v>0.2802940479013517</v>
+        <v>0.1250996015936255</v>
       </c>
       <c r="W4">
-        <v>0.7573385518590998</v>
+        <v>0.3441860465116279</v>
       </c>
       <c r="X4">
-        <v>0.1162732380977717</v>
+        <v>0.1091811628850414</v>
       </c>
       <c r="Y4">
-        <v>0.641065313761328</v>
+        <v>0.2350048836265865</v>
       </c>
       <c r="Z4">
-        <v>-38.74404713824256</v>
+        <v>2.802197802197802</v>
       </c>
       <c r="AA4">
-        <v>-8.189976718294416</v>
+        <v>0.4430400798270414</v>
       </c>
       <c r="AB4">
-        <v>0.1138833583110632</v>
+        <v>0.1084363680663048</v>
       </c>
       <c r="AC4">
-        <v>-8.30386007660548</v>
+        <v>0.3346037117607366</v>
       </c>
       <c r="AD4">
-        <v>6.12</v>
+        <v>7.41</v>
       </c>
       <c r="AE4">
-        <v>9.997511041596562</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>16.11751104159656</v>
+        <v>7.41</v>
       </c>
       <c r="AG4">
-        <v>-102.0824889584034</v>
+        <v>-55.39</v>
       </c>
       <c r="AH4">
-        <v>0.03681330836505819</v>
+        <v>0.01454623976757425</v>
       </c>
       <c r="AI4">
-        <v>0.1109123802497759</v>
+        <v>0.03968721546783782</v>
       </c>
       <c r="AJ4">
-        <v>-0.3193895372807591</v>
+        <v>-0.1240231969727503</v>
       </c>
       <c r="AK4">
-        <v>-3.764449060307024</v>
+        <v>-0.447017996933258</v>
       </c>
       <c r="AL4">
-        <v>0.9379999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.9379999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0719153936545241</v>
-      </c>
-      <c r="AO4">
-        <v>86.67377398720683</v>
+        <v>0.08576388888888889</v>
       </c>
       <c r="AP4">
-        <v>-1.199559212202156</v>
-      </c>
-      <c r="AQ4">
-        <v>86.67377398720683</v>
+        <v>-0.6410879629629629</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/traditional_assets/database/data/turkey/turkey_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_insurance_life.xlsx
@@ -651,10 +651,10 @@
         <v>0.3079289365685074</v>
       </c>
       <c r="X2">
-        <v>0.108979961274915</v>
+        <v>0.1071536915485999</v>
       </c>
       <c r="Y2">
-        <v>0.1989489752935925</v>
+        <v>0.2007752450199076</v>
       </c>
       <c r="Z2">
         <v>4.680432645034414</v>
@@ -663,10 +663,10 @@
         <v>1.966687253298845</v>
       </c>
       <c r="AB2">
-        <v>0.1083766983067593</v>
+        <v>0.1065120674050346</v>
       </c>
       <c r="AC2">
-        <v>1.858310554992086</v>
+        <v>1.86017518589381</v>
       </c>
       <c r="AD2">
         <v>11.49</v>
@@ -782,10 +782,10 @@
         <v>0.271671826625387</v>
       </c>
       <c r="X3">
-        <v>0.1087787596647886</v>
+        <v>0.1069423980470035</v>
       </c>
       <c r="Y3">
-        <v>0.1628930669605984</v>
+        <v>0.1647294285783835</v>
       </c>
       <c r="Z3">
         <v>20.65420560747665</v>
@@ -794,10 +794,10 @@
         <v>3.490334426770648</v>
       </c>
       <c r="AB3">
-        <v>0.1083170285472138</v>
+        <v>0.106451275455985</v>
       </c>
       <c r="AC3">
-        <v>3.382017398223435</v>
+        <v>3.383883151314663</v>
       </c>
       <c r="AD3">
         <v>4.08</v>
@@ -910,10 +910,10 @@
         <v>0.3441860465116279</v>
       </c>
       <c r="X4">
-        <v>0.1091811628850414</v>
+        <v>0.1073649850501962</v>
       </c>
       <c r="Y4">
-        <v>0.2350048836265865</v>
+        <v>0.2368210614614316</v>
       </c>
       <c r="Z4">
         <v>2.802197802197802</v>
@@ -922,10 +922,10 @@
         <v>0.4430400798270414</v>
       </c>
       <c r="AB4">
-        <v>0.1084363680663048</v>
+        <v>0.1065728593540843</v>
       </c>
       <c r="AC4">
-        <v>0.3346037117607366</v>
+        <v>0.3364672204729571</v>
       </c>
       <c r="AD4">
         <v>7.41</v>
